--- a/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,0; 6,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,36; 3,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,28; 4,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,87; 2,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,66; 2,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,53; 3,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,29; 2,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1149,47 +1149,47 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>0,25; 1,96</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,52</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,7</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 1,97</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,52</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,64</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,46; 1,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,92; 2,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,27 +1309,27 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>2,27; 4,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,19</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,55</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,85; 3,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1429,47 +1429,47 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>0,73; 1,58</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,12</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 2,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,16</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,11</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>1,44; 2,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">

--- a/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,01</t>
+          <t>0,14; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0; 0,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0; 0,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,94</t>
+          <t>1,3; 3,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,55</t>
+          <t>0,82; 2,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>0; 0,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,66; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,12</t>
+          <t>1,53; 3,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>0; 0,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,52</t>
+          <t>1,29; 2,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,45</t>
+          <t>0,25; 1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,31</t>
+          <t>0,42; 1,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,71</t>
+          <t>0,46; 1,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,33</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 2,93</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,44</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,5</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 1,96</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,52</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,97</t>
+          <t>2,27; 4,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,53</t>
+          <t>1,85; 3,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,93</t>
+          <t>0,73; 1,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,52</t>
+          <t>1,88; 2,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,33</t>
+          <t>1,44; 2,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0; 0,06</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,34%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 1,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 2,91</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 2,1</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A14_2012-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,7 +730,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,2</t>
+          <t>0,14; 1,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,83</t>
+          <t>1,21; 3,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +770,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,2</t>
+          <t>0,83; 2,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,45</t>
+          <t>0,65; 2,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,31</t>
+          <t>1,5; 3,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -909,7 +910,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,71</t>
+          <t>1,33; 2,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,96</t>
+          <t>0,14; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,97</t>
+          <t>0,51; 2,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,53</t>
+          <t>0,46; 1,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1149,7 +1150,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,93</t>
+          <t>0,95; 2,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1170,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,52</t>
+          <t>2,3; 4,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1190,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,33</t>
+          <t>1,82; 3,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,7 +1290,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,58</t>
+          <t>0,77; 1,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,91</t>
+          <t>1,85; 2,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,7 +1330,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,1</t>
+          <t>1,42; 2,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido antidepresivos y estimulantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3806</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16002</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19809</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1013; 9579</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1914</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8410; 25765</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1839</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1194</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11604; 31175</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1519</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13806</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23977</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37783</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6606; 25048</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2067</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3166</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15406; 35255</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1950</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1397</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27247; 52799</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2020</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2257</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13205</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1062; 12757</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2256</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1887</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3972; 15928</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1610</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6983; 22165</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1892</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15819</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34681</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>50500</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1844</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8970; 27556</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1993</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24097; 47974</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1397</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1908</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36259; 66481</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1964</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1668</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38384</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>82913</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>121296</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26190; 54955</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2425</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65353; 102762</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1400</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>98553; 145777</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1863</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>